--- a/Milestone3/Milestone3Results.xlsx
+++ b/Milestone3/Milestone3Results.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\BigDataAnalyticsProject\Milestone3\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{E45B9214-DC9D-4038-9CD7-19E09C960C16}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="RandomForest" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,15 +24,44 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>genTrainAcc</t>
+  </si>
+  <si>
+    <t>0TrainAcc</t>
+  </si>
+  <si>
+    <t>genTestAcc</t>
+  </si>
+  <si>
+    <t>0TestAcc</t>
+  </si>
+  <si>
+    <t>accRF.rf..test..train.classRebalance.1..test..train.....</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF080808"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -54,8 +84,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -369,15 +402,240 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>0.97188085205992503</v>
+      </c>
+      <c r="E17">
+        <v>0.97313904494381998</v>
+      </c>
+      <c r="F17">
+        <v>0.48167950021792799</v>
+      </c>
+      <c r="G17">
+        <v>0.95884553714591103</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>0.96972534332084903</v>
+      </c>
+      <c r="E18">
+        <v>0.949730805243446</v>
+      </c>
+      <c r="F18">
+        <v>0.55150370477989297</v>
+      </c>
+      <c r="G18">
+        <v>0.93907001603420603</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>0.97157361891385796</v>
+      </c>
+      <c r="E19">
+        <v>0.92532771535580505</v>
+      </c>
+      <c r="F19">
+        <v>0.60177248292895502</v>
+      </c>
+      <c r="G19">
+        <v>0.91608765366114397</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>0.97257724719101102</v>
+      </c>
+      <c r="E20">
+        <v>0.89981273408239704</v>
+      </c>
+      <c r="F20">
+        <v>0.64564869969490002</v>
+      </c>
+      <c r="G20">
+        <v>0.89791555318011795</v>
+      </c>
+      <c r="H20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>0.97348041510611705</v>
+      </c>
+      <c r="E21">
+        <v>0.88541666666666696</v>
+      </c>
+      <c r="F21">
+        <v>0.69173325584774104</v>
+      </c>
+      <c r="G21">
+        <v>0.87814003206841296</v>
+      </c>
+      <c r="H21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>0.97447665864098498</v>
+      </c>
+      <c r="E22">
+        <v>0.86698267790262196</v>
+      </c>
+      <c r="F22">
+        <v>0.71988958303065498</v>
+      </c>
+      <c r="G22">
+        <v>0.86424371993586302</v>
+      </c>
+      <c r="H22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>0.97505559456928803</v>
+      </c>
+      <c r="E23">
+        <v>0.85059691011236005</v>
+      </c>
+      <c r="F23">
+        <v>0.73627778584919401</v>
+      </c>
+      <c r="G23">
+        <v>0.84981293425975402</v>
+      </c>
+      <c r="H23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>0.97558390553474805</v>
+      </c>
+      <c r="E24">
+        <v>0.83257256554307102</v>
+      </c>
+      <c r="F24">
+        <v>0.75815778003777401</v>
+      </c>
+      <c r="G24">
+        <v>0.82843399251737004</v>
+      </c>
+      <c r="H24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>0.97559105805243496</v>
+      </c>
+      <c r="E25">
+        <v>0.79950842696629199</v>
+      </c>
+      <c r="F25">
+        <v>0.78727299142815599</v>
+      </c>
+      <c r="G25">
+        <v>0.79903794762159297</v>
+      </c>
+      <c r="H25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>0.97632043752127995</v>
+      </c>
+      <c r="E26">
+        <v>0.79037921348314599</v>
+      </c>
+      <c r="F26">
+        <v>0.79715240447479296</v>
+      </c>
+      <c r="G26">
+        <v>0.79048637092463903</v>
+      </c>
+      <c r="H26">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>